--- a/Clima.xlsx
+++ b/Clima.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10.8 km/h</t>
+          <t>11.1 km/h</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1018.5 hPa</t>
+          <t>1018.7 hPa</t>
         </is>
       </c>
     </row>

--- a/Clima.xlsx
+++ b/Clima.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11.1 km/h</t>
+          <t>9.9 km/h</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -713,7 +713,44 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1018.7 hPa</t>
+          <t>1019 hPa</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>31 °C</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>36 °C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24 °C</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>10.4 km/h</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>-- km/h</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1019.3 hPa</t>
         </is>
       </c>
     </row>
